--- a/var_info/indv_panel_var_info/BES05_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/BES05_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EE1DA5C-903D-7748-A327-ADC56AFF2D84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81EF658-A5DA-7B47-84C8-6AB4EE2B997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="800" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="800" windowWidth="28800" windowHeight="17060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="49">
   <si>
     <t>ord</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Lifespan</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1018,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1031,7 +1034,7 @@
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1075,10 +1078,13 @@
         <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1109,8 +1115,11 @@
       <c r="J2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1140,6 +1149,9 @@
       </c>
       <c r="J3">
         <v>4</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1149,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1161,7 +1173,7 @@
     <col min="5" max="5" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1205,10 +1217,13 @@
         <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1224,11 +1239,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1244,7 +1259,7 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1255,10 +1270,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1266,7 +1281,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1310,10 +1325,13 @@
         <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1329,11 +1347,11 @@
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1349,11 +1367,11 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1369,11 +1387,11 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1389,7 +1407,7 @@
       <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1400,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L9" activeCellId="1" sqref="O1 L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1412,7 +1430,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1456,10 +1474,13 @@
         <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1475,11 +1496,11 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1495,7 +1516,7 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1509,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1520,7 +1541,7 @@
     <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1564,6 +1585,9 @@
         <v>31</v>
       </c>
       <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1576,7 +1600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8101C2E-8C48-294B-924C-2C04A435033B}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
